--- a/Excels/data/2023.xlsx
+++ b/Excels/data/2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6432F011-D252-439E-A682-195DE9A2A2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AE1431-8E24-43C2-9B80-427292766C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9360" activeTab="3" xr2:uid="{7D2E151C-A83F-4DEF-8F79-62F27E3A97DB}"/>
+    <workbookView xWindow="-8925" yWindow="4335" windowWidth="18075" windowHeight="12255" activeTab="3" xr2:uid="{7D2E151C-A83F-4DEF-8F79-62F27E3A97DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="369">
   <si>
     <t>Round</t>
   </si>
@@ -1151,6 +1151,72 @@
   </si>
   <si>
     <t>riders</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>1_2 F</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>1_7 F</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>1_5</t>
+  </si>
+  <si>
+    <t>1_5 F</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>2_3 F</t>
+  </si>
+  <si>
+    <t>3_3 F</t>
+  </si>
+  <si>
+    <t>11_9</t>
+  </si>
+  <si>
+    <t>1_8</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>2_7</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>2_5</t>
+  </si>
+  <si>
+    <t>10_1</t>
+  </si>
+  <si>
+    <t>10_9</t>
+  </si>
+  <si>
+    <t>2_9</t>
+  </si>
+  <si>
+    <t>2_1 F</t>
   </si>
 </sst>
 </file>
@@ -1203,11 +1269,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,7 +1492,7 @@
     <tableColumn id="2" xr3:uid="{B847BDA7-0A30-4351-9617-3993A51DE840}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="35"/>
     <tableColumn id="3" xr3:uid="{F48E3606-73C4-4304-A449-622C2CD6D105}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="34"/>
     <tableColumn id="4" xr3:uid="{4AC9A1DF-F284-4D5A-B73B-D8CBBB4DA6B1}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{477FBCCD-1803-4FCB-AFE1-77C5084B6107}" uniqueName="5" name="Location" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{477FBCCD-1803-4FCB-AFE1-77C5084B6107}" uniqueName="5" name="Location" queryTableFieldId="5" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1434,31 +1502,31 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{60E7E780-D973-4DCA-B085-9DE2E40C2086}" name="Table_5" displayName="Table_5" ref="A1:Y41" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:Y41" xr:uid="{60E7E780-D973-4DCA-B085-9DE2E40C2086}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{1E314987-3E30-4331-9051-22FFFFAAE073}" uniqueName="1" name="Pos." queryTableFieldId="1" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{60E0C902-4F69-4808-B44D-51AD10645635}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{320BCCBC-E3EA-4D88-B8CB-955D76E8C146}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{D1135063-D8AD-4702-9BE9-9184833C3A39}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{9BFDD46D-4E08-4ED1-B153-D290B9FEB8D1}" uniqueName="5" name="POR" queryTableFieldId="5" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{67B6A803-EFBF-46D1-92A6-952755B0C1F4}" uniqueName="6" name="ARG" queryTableFieldId="6" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{4810DA4C-53F4-4A6F-B826-7965FB8ABBC0}" uniqueName="7" name="AME" queryTableFieldId="7" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{B660D41A-48E8-430E-8533-E3375FC9963C}" uniqueName="8" name="SPA" queryTableFieldId="8" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{03D0AF35-A842-4167-8F76-F469A2A491E5}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{FCF1E775-D86B-4807-88D6-33A3FC613BD7}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{5CCCA891-0C6A-44DC-8B34-1837BDD5F8C9}" uniqueName="11" name="GER" queryTableFieldId="11" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{BD2900CA-BFEF-44EB-9D43-3ED31C2AA6DD}" uniqueName="12" name="NED" queryTableFieldId="12" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{D03AA67E-D7C8-41C7-9763-EAF06DEE6398}" uniqueName="13" name="GBR" queryTableFieldId="13" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{1096E9D5-B900-4C50-A4F6-5BB0D0FB1946}" uniqueName="14" name="AUT" queryTableFieldId="14" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{9F06760B-0A2B-4DE9-B164-D8000BD92BAD}" uniqueName="15" name="CAT" queryTableFieldId="15" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{F6F94739-237D-4C26-87AD-7C9B40674051}" uniqueName="16" name="RSM" queryTableFieldId="16" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{039525B5-D332-4599-96FC-D3555784C3EC}" uniqueName="17" name="IND" queryTableFieldId="17" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{3CE6AA8C-50B7-4C2D-BE6B-CF64E9CA2FDB}" uniqueName="18" name="JPN" queryTableFieldId="18" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{41215E04-4CDD-41F7-B8B2-44D7DA0B46C4}" uniqueName="19" name="INA" queryTableFieldId="19" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{3E996F6E-3F68-4BB8-B554-6DF457AB1F46}" uniqueName="20" name="AUS[d]" queryTableFieldId="20" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{2C569312-85D7-4D35-9DE5-0C3C499B65E2}" uniqueName="21" name="THA" queryTableFieldId="21" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{52CFD0C4-B697-4828-A4DC-47C7B36F7621}" uniqueName="22" name="MAL" queryTableFieldId="22" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{7404CB5B-1D4D-4FAC-9A11-97E3087C849B}" uniqueName="23" name="QAT" queryTableFieldId="23" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{DA2B67F3-7D2C-4A96-9A65-A28995EB3FE3}" uniqueName="24" name="VAL" queryTableFieldId="24" dataDxfId="3"/>
-    <tableColumn id="25" xr3:uid="{8E6F6103-2933-4AE0-B7D0-8ACA15B0AC90}" uniqueName="25" name="Pts" queryTableFieldId="25" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1E314987-3E30-4331-9051-22FFFFAAE073}" uniqueName="1" name="Pos." queryTableFieldId="1" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{60E0C902-4F69-4808-B44D-51AD10645635}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{320BCCBC-E3EA-4D88-B8CB-955D76E8C146}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{D1135063-D8AD-4702-9BE9-9184833C3A39}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{9BFDD46D-4E08-4ED1-B153-D290B9FEB8D1}" uniqueName="5" name="POR" queryTableFieldId="5" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{67B6A803-EFBF-46D1-92A6-952755B0C1F4}" uniqueName="6" name="ARG" queryTableFieldId="6" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{4810DA4C-53F4-4A6F-B826-7965FB8ABBC0}" uniqueName="7" name="AME" queryTableFieldId="7" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{B660D41A-48E8-430E-8533-E3375FC9963C}" uniqueName="8" name="SPA" queryTableFieldId="8" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{03D0AF35-A842-4167-8F76-F469A2A491E5}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{FCF1E775-D86B-4807-88D6-33A3FC613BD7}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{5CCCA891-0C6A-44DC-8B34-1837BDD5F8C9}" uniqueName="11" name="GER" queryTableFieldId="11" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{BD2900CA-BFEF-44EB-9D43-3ED31C2AA6DD}" uniqueName="12" name="NED" queryTableFieldId="12" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{D03AA67E-D7C8-41C7-9763-EAF06DEE6398}" uniqueName="13" name="GBR" queryTableFieldId="13" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{1096E9D5-B900-4C50-A4F6-5BB0D0FB1946}" uniqueName="14" name="AUT" queryTableFieldId="14" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{9F06760B-0A2B-4DE9-B164-D8000BD92BAD}" uniqueName="15" name="CAT" queryTableFieldId="15" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{F6F94739-237D-4C26-87AD-7C9B40674051}" uniqueName="16" name="RSM" queryTableFieldId="16" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{039525B5-D332-4599-96FC-D3555784C3EC}" uniqueName="17" name="IND" queryTableFieldId="17" dataDxfId="15"/>
+    <tableColumn id="18" xr3:uid="{3CE6AA8C-50B7-4C2D-BE6B-CF64E9CA2FDB}" uniqueName="18" name="JPN" queryTableFieldId="18" dataDxfId="14"/>
+    <tableColumn id="19" xr3:uid="{41215E04-4CDD-41F7-B8B2-44D7DA0B46C4}" uniqueName="19" name="INA" queryTableFieldId="19" dataDxfId="13"/>
+    <tableColumn id="20" xr3:uid="{3E996F6E-3F68-4BB8-B554-6DF457AB1F46}" uniqueName="20" name="AUS[d]" queryTableFieldId="20" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{2C569312-85D7-4D35-9DE5-0C3C499B65E2}" uniqueName="21" name="THA" queryTableFieldId="21" dataDxfId="11"/>
+    <tableColumn id="22" xr3:uid="{52CFD0C4-B697-4828-A4DC-47C7B36F7621}" uniqueName="22" name="MAL" queryTableFieldId="22" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{7404CB5B-1D4D-4FAC-9A11-97E3087C849B}" uniqueName="23" name="QAT" queryTableFieldId="23" dataDxfId="9"/>
+    <tableColumn id="24" xr3:uid="{DA2B67F3-7D2C-4A96-9A65-A28995EB3FE3}" uniqueName="24" name="VAL" queryTableFieldId="24" dataDxfId="8"/>
+    <tableColumn id="25" xr3:uid="{8E6F6103-2933-4AE0-B7D0-8ACA15B0AC90}" uniqueName="25" name="Pts" queryTableFieldId="25" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1468,13 +1536,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8C6BE27-9C5D-4D76-8F29-8BBE4C54896A}" name="Table_1" displayName="Table_1" ref="A1:G40" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G40" xr:uid="{B8C6BE27-9C5D-4D76-8F29-8BBE4C54896A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2631834C-AA24-41CA-957F-A6B6E4BDBBB5}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{2052F783-3239-43CB-9405-CD5620877A09}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{40D43203-ED5E-4A71-9C39-DD92E9B02348}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{C089580F-80AE-4A0B-A33D-3151F85705BB}" uniqueName="7" name="Tyres" queryTableFieldId="7" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{8CFC4E17-4AC8-4249-B5FD-E82845052203}" uniqueName="4" name="No." queryTableFieldId="4" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{893A19D8-97C4-49BE-BB4E-8D061C647FF8}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{0A115035-993E-4B0C-BCD9-1A97BBF51E02}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{2631834C-AA24-41CA-957F-A6B6E4BDBBB5}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{2052F783-3239-43CB-9405-CD5620877A09}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{40D43203-ED5E-4A71-9C39-DD92E9B02348}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{C089580F-80AE-4A0B-A33D-3151F85705BB}" uniqueName="7" name="Tyres" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8CFC4E17-4AC8-4249-B5FD-E82845052203}" uniqueName="4" name="No." queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{893A19D8-97C4-49BE-BB4E-8D061C647FF8}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{0A115035-993E-4B0C-BCD9-1A97BBF51E02}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1777,7 +1845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6A82DB-55DE-4983-84EE-C590466A6B32}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1809,365 +1877,344 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>302</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>304</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>308</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>310</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>312</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>314</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>316</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>318</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>320</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>322</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>324</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>326</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>328</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>330</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>332</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>334</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>336</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>338</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>340</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2179,7 +2226,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADD9E42-3003-45DA-9E82-4FFE6C63F177}">
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:X39"/>
@@ -2274,2386 +2321,2033 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>172</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>173</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>174</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>176</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>177</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>178</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>179</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>180</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>181</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>182</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>189</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" t="s">
         <v>184</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" t="s">
         <v>185</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" t="s">
         <v>186</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" t="s">
         <v>187</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>192</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>193</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>194</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>195</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" t="s">
         <v>196</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" t="s">
         <v>197</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" t="s">
         <v>198</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>199</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" t="s">
         <v>126</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" t="s">
         <v>200</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" t="s">
         <v>82</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>203</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>204</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>205</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>164</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>194</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>161</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" t="s">
         <v>206</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" t="s">
         <v>207</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
         <v>194</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" t="s">
         <v>121</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" t="s">
         <v>208</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" t="s">
         <v>206</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>192</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>210</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>211</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>212</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>213</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>214</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>215</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" t="s">
         <v>216</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="s">
         <v>217</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" t="s">
         <v>218</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>219</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" t="s">
         <v>220</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" t="s">
         <v>221</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" t="s">
         <v>222</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" t="s">
         <v>223</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>225</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>226</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>227</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>228</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>229</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" t="s">
         <v>230</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" t="s">
         <v>217</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" t="s">
         <v>231</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" t="s">
         <v>232</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" t="s">
         <v>144</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>199</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" t="s">
         <v>77</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" t="s">
         <v>233</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" t="s">
         <v>234</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" t="s">
         <v>235</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Y6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>237</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>238</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>131</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>239</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>240</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="L7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M7" t="s">
         <v>147</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" t="s">
         <v>213</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
         <v>242</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="T7" s="1" t="s">
+      <c r="S7" t="s">
+        <v>241</v>
+      </c>
+      <c r="T7" t="s">
         <v>4</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" t="s">
         <v>243</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" t="s">
         <v>216</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" t="s">
         <v>244</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>246</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>231</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>247</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>202</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>248</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>249</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
         <v>239</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" t="s">
         <v>250</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" t="s">
         <v>251</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" t="s">
         <v>216</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="Q8" t="s">
+        <v>241</v>
+      </c>
+      <c r="R8" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" t="s">
         <v>252</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="X8" s="1" t="s">
+      <c r="V8" t="s">
+        <v>241</v>
+      </c>
+      <c r="W8" t="s">
+        <v>241</v>
+      </c>
+      <c r="X8" t="s">
         <v>25</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Y8" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>254</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>223</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>210</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="K9" t="s">
+        <v>241</v>
+      </c>
+      <c r="L9" t="s">
         <v>223</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
         <v>220</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
         <v>248</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" t="s">
         <v>255</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" t="s">
         <v>256</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" t="s">
         <v>84</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" t="s">
         <v>257</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" t="s">
         <v>258</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="V9" s="1" t="s">
+      <c r="U9" t="s">
+        <v>241</v>
+      </c>
+      <c r="V9" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" t="s">
         <v>219</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="X9" t="s">
         <v>259</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Y9" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" t="s">
         <v>261</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>231</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>262</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" t="s">
         <v>251</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" t="s">
         <v>263</v>
       </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1" t="s">
+      <c r="S10" t="s">
         <v>215</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" t="s">
         <v>110</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" t="s">
         <v>243</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" t="s">
         <v>200</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="X10" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>265</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I11" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" t="s">
         <v>267</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>268</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>269</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>206</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" t="s">
         <v>262</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" t="s">
         <v>270</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" t="s">
         <v>263</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1" t="s">
+      <c r="S11" t="s">
         <v>263</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" t="s">
         <v>238</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" t="s">
         <v>271</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" t="s">
         <v>272</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="X11" t="s">
         <v>248</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Y11" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>274</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>203</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" t="s">
         <v>131</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" t="s">
         <v>31</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" t="s">
         <v>164</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" t="s">
         <v>16</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" t="s">
         <v>16</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" t="s">
         <v>268</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" t="s">
         <v>34</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Y12" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>276</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>210</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>151</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="I13" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" t="s">
         <v>277</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>278</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="L13" t="s">
+        <v>241</v>
+      </c>
+      <c r="M13" t="s">
         <v>279</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" t="s">
         <v>280</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="P13" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q13" t="s">
         <v>281</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" t="s">
         <v>272</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" t="s">
         <v>274</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" t="s">
         <v>22</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" t="s">
         <v>49</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" t="s">
         <v>282</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" t="s">
         <v>28</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y13" s="1" t="s">
+      <c r="X13" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y13" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="L14" t="s">
+        <v>241</v>
+      </c>
+      <c r="M14" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" t="s">
         <v>52</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" t="s">
         <v>52</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="R14" s="1" t="s">
+      <c r="Q14" t="s">
+        <v>241</v>
+      </c>
+      <c r="R14" t="s">
         <v>84</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
         <v>219</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" t="s">
         <v>28</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" t="s">
         <v>28</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" t="s">
         <v>37</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="X14" t="s">
         <v>219</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Y14" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>144</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" t="s">
         <v>270</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" t="s">
         <v>52</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" t="s">
         <v>43</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" t="s">
         <v>52</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" t="s">
         <v>22</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" t="s">
         <v>49</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X15" t="s">
         <v>22</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Y15" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>233</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>223</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>263</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" t="s">
         <v>263</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="M16" t="s">
+        <v>241</v>
+      </c>
+      <c r="N16" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" t="s">
         <v>40</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" t="s">
         <v>134</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" t="s">
         <v>142</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="T16" s="1" t="s">
+      <c r="S16" t="s">
+        <v>241</v>
+      </c>
+      <c r="T16" t="s">
         <v>46</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" t="s">
         <v>272</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" t="s">
         <v>34</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="X16" t="s">
         <v>203</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Y16" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>263</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>263</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>287</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>238</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="M17" t="s">
+        <v>241</v>
+      </c>
+      <c r="N17" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" t="s">
         <v>288</v>
       </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1" t="s">
+      <c r="S17" t="s">
         <v>289</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" t="s">
         <v>31</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" t="s">
         <v>40</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" t="s">
         <v>43</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" t="s">
         <v>290</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y17" s="1" t="s">
+      <c r="X17" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y17" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>223</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>202</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>233</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="J18" t="s">
+        <v>241</v>
+      </c>
+      <c r="K18" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="L18" t="s">
+        <v>241</v>
+      </c>
+      <c r="M18" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="N18" t="s">
+        <v>241</v>
+      </c>
+      <c r="O18" t="s">
         <v>256</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" t="s">
         <v>55</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" t="s">
         <v>37</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" t="s">
         <v>40</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="W18" s="1" t="s">
+      <c r="U18" t="s">
+        <v>241</v>
+      </c>
+      <c r="V18" t="s">
+        <v>241</v>
+      </c>
+      <c r="W18" t="s">
         <v>263</v>
       </c>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1" t="s">
+      <c r="Y18" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" t="s">
         <v>292</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" t="s">
         <v>43</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" t="s">
         <v>49</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="R19" s="1" t="s">
+      <c r="Q19" t="s">
+        <v>241</v>
+      </c>
+      <c r="R19" t="s">
         <v>22</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="U19" s="1" t="s">
+      <c r="S19" t="s">
+        <v>241</v>
+      </c>
+      <c r="T19" t="s">
+        <v>241</v>
+      </c>
+      <c r="U19" t="s">
         <v>52</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="V19" t="s">
         <v>43</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" t="s">
         <v>293</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y19" s="1" t="s">
+      <c r="X19" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y19" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" t="s">
         <v>49</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" t="s">
         <v>55</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" t="s">
         <v>58</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" t="s">
         <v>34</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" t="s">
         <v>34</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" t="s">
         <v>43</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" t="s">
         <v>55</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" t="s">
         <v>58</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="X20" t="s">
         <v>37</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Y20" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>296</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>192</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="H21" t="s">
+        <v>241</v>
+      </c>
+      <c r="I21" t="s">
+        <v>241</v>
+      </c>
+      <c r="J21" t="s">
         <v>263</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1" t="s">
+      <c r="R21" t="s">
         <v>297</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="S21" t="s">
         <v>28</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" t="s">
         <v>263</v>
       </c>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y21" s="1" t="s">
+      <c r="X21" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y21" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>297</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" t="s">
         <v>37</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="P22" s="1" t="s">
+      <c r="N22" t="s">
+        <v>241</v>
+      </c>
+      <c r="O22" t="s">
+        <v>241</v>
+      </c>
+      <c r="P22" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" t="s">
         <v>243</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" t="s">
         <v>28</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S22" t="s">
         <v>40</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T22" t="s">
         <v>49</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" t="s">
         <v>46</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="W22" s="1" t="s">
+      <c r="V22" t="s">
+        <v>241</v>
+      </c>
+      <c r="W22" t="s">
         <v>52</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="X22" t="s">
         <v>16</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>277</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1" t="s">
+      <c r="P23" t="s">
         <v>144</v>
       </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1" t="s">
+      <c r="Y23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>217</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>263</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="G24" t="s">
+        <v>241</v>
+      </c>
+      <c r="H24" t="s">
+        <v>241</v>
+      </c>
+      <c r="I24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J24" t="s">
         <v>263</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="M24" t="s">
+        <v>241</v>
+      </c>
+      <c r="N24" t="s">
+        <v>241</v>
+      </c>
+      <c r="O24" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q24" s="1" t="s">
+      <c r="P24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q24" t="s">
         <v>16</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" t="s">
         <v>37</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="U24" s="1" t="s">
+      <c r="S24" t="s">
+        <v>241</v>
+      </c>
+      <c r="T24" t="s">
+        <v>241</v>
+      </c>
+      <c r="U24" t="s">
         <v>37</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="W24" s="1" t="s">
+      <c r="V24" t="s">
+        <v>241</v>
+      </c>
+      <c r="W24" t="s">
         <v>43</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="X24" t="s">
         <v>263</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Y24" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>263</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1" t="s">
+      <c r="M25" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" t="s">
         <v>190</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q25" s="1" t="s">
+      <c r="O25" t="s">
+        <v>241</v>
+      </c>
+      <c r="P25" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q25" t="s">
         <v>40</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" t="s">
         <v>46</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="T25" s="1" t="s">
+      <c r="S25" t="s">
+        <v>241</v>
+      </c>
+      <c r="T25" t="s">
         <v>55</v>
       </c>
-      <c r="U25" s="1" t="s">
+      <c r="U25" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="V25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="W25" t="s">
         <v>55</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="X25" t="s">
         <v>43</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="Y25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>258</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1" t="s">
+      <c r="X26" t="s">
         <v>40</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Y26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>258</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
+      <c r="J27" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1" t="s">
+      <c r="L27" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1" t="s">
+      <c r="N27" t="s">
         <v>58</v>
       </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1" t="s">
+      <c r="Y27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" t="s">
         <v>52</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" t="s">
         <v>43</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1" t="s">
+      <c r="Y28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1" t="s">
+      <c r="G29" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
+      <c r="H30" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1" t="s">
+      <c r="P30" t="s">
         <v>55</v>
       </c>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1" t="s">
+      <c r="Y30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>296</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1" t="s">
+      <c r="L31" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1" t="s">
+      <c r="Q31" t="s">
         <v>46</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="R31" t="s">
         <v>43</v>
       </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1" t="s">
+      <c r="Y31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1" t="s">
+      <c r="Q32" t="s">
         <v>49</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="R32" t="s">
         <v>49</v>
       </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1" t="s">
+      <c r="Y32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1" t="s">
+      <c r="J33" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1" t="s">
+      <c r="P33" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>298</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>34</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1" t="s">
+      <c r="Y34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>244</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>165</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>163</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1" t="s">
+      <c r="R35" t="s">
         <v>40</v>
       </c>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1" t="s">
+      <c r="Y35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
+      <c r="H36" t="s">
         <v>49</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1" t="s">
+      <c r="L36" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y36" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>296</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1" t="s">
+      <c r="M37" t="s">
         <v>52</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N37" t="s">
         <v>61</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="O37" t="s">
         <v>49</v>
       </c>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1" t="s">
+      <c r="V37" t="s">
         <v>49</v>
       </c>
-      <c r="W37" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1" t="s">
+      <c r="W37" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y37" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>300</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1" t="s">
+      <c r="V38" t="s">
         <v>52</v>
       </c>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1" t="s">
+      <c r="Y38" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>296</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1" t="s">
+      <c r="P39" t="s">
         <v>301</v>
       </c>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1" t="s">
+      <c r="Y39" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4665,7 +4359,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834260F7-9206-4575-9AC2-2602F879D844}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
@@ -4706,887 +4400,878 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>345</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>345</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>345</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>345</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>345</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>345</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>345</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>345</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>345</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>345</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>345</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>345</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>345</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>345</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>345</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>345</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>345</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>343</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>345</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>343</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>345</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>343</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>345</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>343</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>345</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>343</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>345</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>345</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>345</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>345</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>135</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>345</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>345</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>345</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>124</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>139</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>345</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>142</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>143</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>145</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>141</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>345</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>148</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>345</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>151</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>152</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>154</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>345</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>155</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>345</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>345</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>162</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>345</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>165</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5601,12 +5286,13 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Z1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -5667,7 +5353,7 @@
       <c r="S1">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="3">
         <v>19</v>
       </c>
       <c r="U1">
@@ -5690,1816 +5376,1817 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N5" s="2">
+        <v>44</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="1">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" s="2">
+        <v>169</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="M7" s="2">
+        <v>128</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" s="2">
+        <v>54</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I10" s="1">
+        <v>69</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J11" s="2">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N12" s="1">
+        <v>147</v>
+      </c>
+      <c r="O12" s="1">
+        <v>64</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" s="2">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="2">
+        <v>93</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="2">
+        <v>64</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
+        <v>44</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="L24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="2"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="2"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="O30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="T4" s="2" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="2"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="2"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="2" t="s">
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S12" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="3" t="s">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="2"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="3" t="s">
+      <c r="K36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="U36" s="2"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="2"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excels/data/2023.xlsx
+++ b/Excels/data/2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AE1431-8E24-43C2-9B80-427292766C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E13770-24FD-413F-8BC2-F2C6EA95886F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8925" yWindow="4335" windowWidth="18075" windowHeight="12255" activeTab="3" xr2:uid="{7D2E151C-A83F-4DEF-8F79-62F27E3A97DB}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="18075" windowHeight="12255" activeTab="2" xr2:uid="{7D2E151C-A83F-4DEF-8F79-62F27E3A97DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="371">
   <si>
     <t>Round</t>
   </si>
@@ -1217,6 +1217,12 @@
   </si>
   <si>
     <t>2_1 F</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>motogp</t>
   </si>
 </sst>
 </file>
@@ -1269,18 +1275,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1465,8 +1475,8 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_2" backgroundRefresh="0" connectionId="5" xr16:uid="{D7D95D8B-1663-43EB-A23B-45463D2F6339}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="9" unboundColumnsRight="1">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Team" tableColumnId="1"/>
       <queryTableField id="2" name="Constructor" tableColumnId="2"/>
       <queryTableField id="3" name="Motorcycle" tableColumnId="3"/>
@@ -1474,6 +1484,7 @@
       <queryTableField id="4" name="No." tableColumnId="4"/>
       <queryTableField id="5" name="Rider" tableColumnId="5"/>
       <queryTableField id="6" name="Rounds" tableColumnId="6"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
   <extLst>
@@ -1488,11 +1499,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{008025FC-FC06-445F-826D-46DB116A425D}" name="Calendar_edit" displayName="Calendar_edit" ref="A1:E24" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E24" xr:uid="{008025FC-FC06-445F-826D-46DB116A425D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E10415B5-9148-4878-960D-FFEB5B1A040C}" uniqueName="1" name="Round" queryTableFieldId="1" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{B847BDA7-0A30-4351-9617-3993A51DE840}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{F48E3606-73C4-4304-A449-622C2CD6D105}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{4AC9A1DF-F284-4D5A-B73B-D8CBBB4DA6B1}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{477FBCCD-1803-4FCB-AFE1-77C5084B6107}" uniqueName="5" name="Location" queryTableFieldId="5" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{E10415B5-9148-4878-960D-FFEB5B1A040C}" uniqueName="1" name="Round" queryTableFieldId="1" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{B847BDA7-0A30-4351-9617-3993A51DE840}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{F48E3606-73C4-4304-A449-622C2CD6D105}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{4AC9A1DF-F284-4D5A-B73B-D8CBBB4DA6B1}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{477FBCCD-1803-4FCB-AFE1-77C5084B6107}" uniqueName="5" name="Location" queryTableFieldId="5" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1502,47 +1513,48 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{60E7E780-D973-4DCA-B085-9DE2E40C2086}" name="Table_5" displayName="Table_5" ref="A1:Y41" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:Y41" xr:uid="{60E7E780-D973-4DCA-B085-9DE2E40C2086}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{1E314987-3E30-4331-9051-22FFFFAAE073}" uniqueName="1" name="Pos." queryTableFieldId="1" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{60E0C902-4F69-4808-B44D-51AD10645635}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{320BCCBC-E3EA-4D88-B8CB-955D76E8C146}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{D1135063-D8AD-4702-9BE9-9184833C3A39}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{9BFDD46D-4E08-4ED1-B153-D290B9FEB8D1}" uniqueName="5" name="POR" queryTableFieldId="5" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{67B6A803-EFBF-46D1-92A6-952755B0C1F4}" uniqueName="6" name="ARG" queryTableFieldId="6" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{4810DA4C-53F4-4A6F-B826-7965FB8ABBC0}" uniqueName="7" name="AME" queryTableFieldId="7" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{B660D41A-48E8-430E-8533-E3375FC9963C}" uniqueName="8" name="SPA" queryTableFieldId="8" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{03D0AF35-A842-4167-8F76-F469A2A491E5}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{FCF1E775-D86B-4807-88D6-33A3FC613BD7}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{5CCCA891-0C6A-44DC-8B34-1837BDD5F8C9}" uniqueName="11" name="GER" queryTableFieldId="11" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{BD2900CA-BFEF-44EB-9D43-3ED31C2AA6DD}" uniqueName="12" name="NED" queryTableFieldId="12" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{D03AA67E-D7C8-41C7-9763-EAF06DEE6398}" uniqueName="13" name="GBR" queryTableFieldId="13" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{1096E9D5-B900-4C50-A4F6-5BB0D0FB1946}" uniqueName="14" name="AUT" queryTableFieldId="14" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{9F06760B-0A2B-4DE9-B164-D8000BD92BAD}" uniqueName="15" name="CAT" queryTableFieldId="15" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{F6F94739-237D-4C26-87AD-7C9B40674051}" uniqueName="16" name="RSM" queryTableFieldId="16" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{039525B5-D332-4599-96FC-D3555784C3EC}" uniqueName="17" name="IND" queryTableFieldId="17" dataDxfId="15"/>
-    <tableColumn id="18" xr3:uid="{3CE6AA8C-50B7-4C2D-BE6B-CF64E9CA2FDB}" uniqueName="18" name="JPN" queryTableFieldId="18" dataDxfId="14"/>
-    <tableColumn id="19" xr3:uid="{41215E04-4CDD-41F7-B8B2-44D7DA0B46C4}" uniqueName="19" name="INA" queryTableFieldId="19" dataDxfId="13"/>
-    <tableColumn id="20" xr3:uid="{3E996F6E-3F68-4BB8-B554-6DF457AB1F46}" uniqueName="20" name="AUS[d]" queryTableFieldId="20" dataDxfId="12"/>
-    <tableColumn id="21" xr3:uid="{2C569312-85D7-4D35-9DE5-0C3C499B65E2}" uniqueName="21" name="THA" queryTableFieldId="21" dataDxfId="11"/>
-    <tableColumn id="22" xr3:uid="{52CFD0C4-B697-4828-A4DC-47C7B36F7621}" uniqueName="22" name="MAL" queryTableFieldId="22" dataDxfId="10"/>
-    <tableColumn id="23" xr3:uid="{7404CB5B-1D4D-4FAC-9A11-97E3087C849B}" uniqueName="23" name="QAT" queryTableFieldId="23" dataDxfId="9"/>
-    <tableColumn id="24" xr3:uid="{DA2B67F3-7D2C-4A96-9A65-A28995EB3FE3}" uniqueName="24" name="VAL" queryTableFieldId="24" dataDxfId="8"/>
-    <tableColumn id="25" xr3:uid="{8E6F6103-2933-4AE0-B7D0-8ACA15B0AC90}" uniqueName="25" name="Pts" queryTableFieldId="25" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{1E314987-3E30-4331-9051-22FFFFAAE073}" uniqueName="1" name="Pos." queryTableFieldId="1" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{60E0C902-4F69-4808-B44D-51AD10645635}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{320BCCBC-E3EA-4D88-B8CB-955D76E8C146}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{D1135063-D8AD-4702-9BE9-9184833C3A39}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{9BFDD46D-4E08-4ED1-B153-D290B9FEB8D1}" uniqueName="5" name="POR" queryTableFieldId="5" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{67B6A803-EFBF-46D1-92A6-952755B0C1F4}" uniqueName="6" name="ARG" queryTableFieldId="6" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{4810DA4C-53F4-4A6F-B826-7965FB8ABBC0}" uniqueName="7" name="AME" queryTableFieldId="7" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{B660D41A-48E8-430E-8533-E3375FC9963C}" uniqueName="8" name="SPA" queryTableFieldId="8" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{03D0AF35-A842-4167-8F76-F469A2A491E5}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{FCF1E775-D86B-4807-88D6-33A3FC613BD7}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{5CCCA891-0C6A-44DC-8B34-1837BDD5F8C9}" uniqueName="11" name="GER" queryTableFieldId="11" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{BD2900CA-BFEF-44EB-9D43-3ED31C2AA6DD}" uniqueName="12" name="NED" queryTableFieldId="12" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{D03AA67E-D7C8-41C7-9763-EAF06DEE6398}" uniqueName="13" name="GBR" queryTableFieldId="13" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{1096E9D5-B900-4C50-A4F6-5BB0D0FB1946}" uniqueName="14" name="AUT" queryTableFieldId="14" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{9F06760B-0A2B-4DE9-B164-D8000BD92BAD}" uniqueName="15" name="CAT" queryTableFieldId="15" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{F6F94739-237D-4C26-87AD-7C9B40674051}" uniqueName="16" name="RSM" queryTableFieldId="16" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{039525B5-D332-4599-96FC-D3555784C3EC}" uniqueName="17" name="IND" queryTableFieldId="17" dataDxfId="16"/>
+    <tableColumn id="18" xr3:uid="{3CE6AA8C-50B7-4C2D-BE6B-CF64E9CA2FDB}" uniqueName="18" name="JPN" queryTableFieldId="18" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{41215E04-4CDD-41F7-B8B2-44D7DA0B46C4}" uniqueName="19" name="INA" queryTableFieldId="19" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{3E996F6E-3F68-4BB8-B554-6DF457AB1F46}" uniqueName="20" name="AUS[d]" queryTableFieldId="20" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{2C569312-85D7-4D35-9DE5-0C3C499B65E2}" uniqueName="21" name="THA" queryTableFieldId="21" dataDxfId="12"/>
+    <tableColumn id="22" xr3:uid="{52CFD0C4-B697-4828-A4DC-47C7B36F7621}" uniqueName="22" name="MAL" queryTableFieldId="22" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{7404CB5B-1D4D-4FAC-9A11-97E3087C849B}" uniqueName="23" name="QAT" queryTableFieldId="23" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{DA2B67F3-7D2C-4A96-9A65-A28995EB3FE3}" uniqueName="24" name="VAL" queryTableFieldId="24" dataDxfId="9"/>
+    <tableColumn id="25" xr3:uid="{8E6F6103-2933-4AE0-B7D0-8ACA15B0AC90}" uniqueName="25" name="Pts" queryTableFieldId="25" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8C6BE27-9C5D-4D76-8F29-8BBE4C54896A}" name="Table_1" displayName="Table_1" ref="A1:G40" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G40" xr:uid="{B8C6BE27-9C5D-4D76-8F29-8BBE4C54896A}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2631834C-AA24-41CA-957F-A6B6E4BDBBB5}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{2052F783-3239-43CB-9405-CD5620877A09}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{40D43203-ED5E-4A71-9C39-DD92E9B02348}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{C089580F-80AE-4A0B-A33D-3151F85705BB}" uniqueName="7" name="Tyres" queryTableFieldId="7" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{8CFC4E17-4AC8-4249-B5FD-E82845052203}" uniqueName="4" name="No." queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{893A19D8-97C4-49BE-BB4E-8D061C647FF8}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0A115035-993E-4B0C-BCD9-1A97BBF51E02}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8C6BE27-9C5D-4D76-8F29-8BBE4C54896A}" name="Table_1" displayName="Table_1" ref="A1:H40" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H40" xr:uid="{B8C6BE27-9C5D-4D76-8F29-8BBE4C54896A}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{2631834C-AA24-41CA-957F-A6B6E4BDBBB5}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{2052F783-3239-43CB-9405-CD5620877A09}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{40D43203-ED5E-4A71-9C39-DD92E9B02348}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C089580F-80AE-4A0B-A33D-3151F85705BB}" uniqueName="7" name="Tyres" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{8CFC4E17-4AC8-4249-B5FD-E82845052203}" uniqueName="4" name="No." queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{893A19D8-97C4-49BE-BB4E-8D061C647FF8}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{0A115035-993E-4B0C-BCD9-1A97BBF51E02}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{40573851-BFCB-4B8F-94C0-54F93C1DFC95}" uniqueName="8" name="Class" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4359,10 +4371,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834260F7-9206-4575-9AC2-2602F879D844}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4376,7 +4388,7 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -4398,8 +4410,11 @@
       <c r="G1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -4421,8 +4436,11 @@
       <c r="G2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -4444,8 +4462,11 @@
       <c r="G3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -4467,8 +4488,11 @@
       <c r="G4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -4490,8 +4514,11 @@
       <c r="G5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -4513,8 +4540,11 @@
       <c r="G6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -4536,8 +4566,11 @@
       <c r="G7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -4559,8 +4592,11 @@
       <c r="G8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -4582,8 +4618,11 @@
       <c r="G9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -4605,8 +4644,11 @@
       <c r="G10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -4628,8 +4670,11 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -4651,8 +4696,11 @@
       <c r="G12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -4674,8 +4722,11 @@
       <c r="G13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -4697,8 +4748,11 @@
       <c r="G14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -4720,8 +4774,11 @@
       <c r="G15" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -4743,8 +4800,11 @@
       <c r="G16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -4766,8 +4826,11 @@
       <c r="G17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -4789,8 +4852,11 @@
       <c r="G18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -4812,8 +4878,11 @@
       <c r="G19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>343</v>
       </c>
@@ -4835,8 +4904,11 @@
       <c r="G20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>343</v>
       </c>
@@ -4858,8 +4930,11 @@
       <c r="G21" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>343</v>
       </c>
@@ -4881,8 +4956,11 @@
       <c r="G22" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>343</v>
       </c>
@@ -4904,8 +4982,11 @@
       <c r="G23" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>343</v>
       </c>
@@ -4927,8 +5008,11 @@
       <c r="G24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -4950,8 +5034,11 @@
       <c r="G25" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -4973,8 +5060,11 @@
       <c r="G26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -4996,8 +5086,11 @@
       <c r="G27" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -5019,8 +5112,11 @@
       <c r="G28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -5042,8 +5138,11 @@
       <c r="G29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -5065,8 +5164,11 @@
       <c r="G30" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -5088,8 +5190,11 @@
       <c r="G31" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -5111,8 +5216,11 @@
       <c r="G32" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>139</v>
       </c>
@@ -5134,8 +5242,11 @@
       <c r="G33" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -5157,8 +5268,11 @@
       <c r="G34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>150</v>
       </c>
@@ -5180,8 +5294,11 @@
       <c r="G35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -5203,8 +5320,11 @@
       <c r="G36" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -5226,8 +5346,11 @@
       <c r="G37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>157</v>
       </c>
@@ -5249,8 +5372,11 @@
       <c r="G38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -5272,6 +5398,12 @@
       <c r="G39" t="s">
         <v>43</v>
       </c>
+      <c r="H39" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5285,7 +5417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A742E8A-CDD3-4C7F-BFC2-1BE6EA1C66A7}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/Excels/data/2023.xlsx
+++ b/Excels/data/2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683C8D40-7E6D-44C8-A685-C648D2ACDFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99BDD89-2BC3-4098-9328-006B6497D202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18075" windowHeight="12255" tabRatio="842" firstSheet="1" activeTab="12" xr2:uid="{7D2E151C-A83F-4DEF-8F79-62F27E3A97DB}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18075" windowHeight="12255" tabRatio="842" firstSheet="1" activeTab="6" xr2:uid="{7D2E151C-A83F-4DEF-8F79-62F27E3A97DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6425" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6425" uniqueCount="683">
   <si>
     <t>Round</t>
   </si>
@@ -2204,6 +2204,72 @@
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>(HP)9</t>
+  </si>
+  <si>
+    <t>(HP)1F</t>
+  </si>
+  <si>
+    <t>(HP)3P</t>
+  </si>
+  <si>
+    <t>(HP)Ret</t>
+  </si>
+  <si>
+    <t>(HP)2</t>
+  </si>
+  <si>
+    <t>(HP)7</t>
+  </si>
+  <si>
+    <t>(HP)NC</t>
+  </si>
+  <si>
+    <t>(HP)13</t>
+  </si>
+  <si>
+    <t>(HP)15</t>
+  </si>
+  <si>
+    <t>(HP)5</t>
+  </si>
+  <si>
+    <t>(HP)14</t>
+  </si>
+  <si>
+    <t>(HP)10</t>
+  </si>
+  <si>
+    <t>(HP)4</t>
+  </si>
+  <si>
+    <t>(HP)17</t>
+  </si>
+  <si>
+    <t>(HP)8</t>
+  </si>
+  <si>
+    <t>(HP)6</t>
+  </si>
+  <si>
+    <t>(HP)20</t>
+  </si>
+  <si>
+    <t>(HP)11</t>
+  </si>
+  <si>
+    <t>(HP)19</t>
+  </si>
+  <si>
+    <t>(HP)12</t>
+  </si>
+  <si>
+    <t>(HP)16</t>
+  </si>
+  <si>
+    <t>(HP)18</t>
   </si>
 </sst>
 </file>
@@ -2275,18 +2341,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3926,16 +3989,16 @@
       <c r="A28">
         <v>107</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" t="s">
         <v>316</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" t="s">
         <v>317</v>
       </c>
     </row>
@@ -3960,16 +4023,16 @@
       <c r="A30">
         <v>109</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>319</v>
       </c>
     </row>
@@ -3977,16 +4040,16 @@
       <c r="A31">
         <v>110</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>319</v>
       </c>
     </row>
@@ -3994,16 +4057,16 @@
       <c r="A32">
         <v>111</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="7" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4011,16 +4074,16 @@
       <c r="A33">
         <v>112</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="7" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4028,16 +4091,16 @@
       <c r="A34">
         <v>113</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4045,16 +4108,16 @@
       <c r="A35">
         <v>114</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4062,16 +4125,16 @@
       <c r="A36">
         <v>115</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="7" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4079,16 +4142,16 @@
       <c r="A37">
         <v>116</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="7" t="s">
         <v>325</v>
       </c>
     </row>
@@ -8354,7 +8417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51F4478-124B-458A-8F49-21145DAD5FB4}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -18945,8 +19008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49AFE24-377A-4032-A456-7D5F94072262}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:B57"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19090,7 +19153,7 @@
         <v>473</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>28</v>
+        <v>661</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>7</v>
@@ -19158,7 +19221,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>473</v>
+        <v>662</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>13</v>
@@ -19226,7 +19289,7 @@
         <v>10</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>475</v>
+        <v>663</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>474</v>
@@ -19294,7 +19357,7 @@
         <v>13</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>241</v>
+        <v>664</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>241</v>
@@ -19362,7 +19425,7 @@
         <v>484</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>7</v>
+        <v>665</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>34</v>
@@ -19430,7 +19493,7 @@
         <v>22</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>22</v>
+        <v>666</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>10</v>
@@ -19498,7 +19561,7 @@
         <v>82</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>488</v>
+        <v>667</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>25</v>
@@ -19566,7 +19629,7 @@
         <v>16</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>40</v>
+        <v>668</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>31</v>
@@ -19632,7 +19695,7 @@
         <v>52</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>46</v>
+        <v>669</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>16</v>
@@ -19696,7 +19759,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>241</v>
+        <v>664</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>241</v>
@@ -19764,7 +19827,7 @@
         <v>241</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>241</v>
+        <v>664</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>52</v>
@@ -19832,7 +19895,7 @@
         <v>31</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>241</v>
+        <v>664</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>43</v>
@@ -19900,7 +19963,7 @@
         <v>28</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>16</v>
+        <v>670</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>241</v>
@@ -19968,7 +20031,7 @@
         <v>46</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>43</v>
+        <v>671</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>22</v>
@@ -20036,7 +20099,7 @@
         <v>25</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>241</v>
+        <v>664</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>241</v>
@@ -20132,7 +20195,7 @@
         <v>49</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>31</v>
+        <v>672</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>19</v>
@@ -20200,7 +20263,7 @@
         <v>241</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>241</v>
+        <v>664</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>55</v>
@@ -20268,7 +20331,7 @@
         <v>61</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>13</v>
+        <v>673</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>40</v>
@@ -20336,7 +20399,7 @@
         <v>34</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>52</v>
+        <v>674</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>37</v>
@@ -20396,7 +20459,7 @@
         <v>40</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>241</v>
+        <v>664</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>46</v>
@@ -20464,7 +20527,7 @@
         <v>37</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>25</v>
+        <v>675</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>49</v>
@@ -20528,7 +20591,7 @@
         <v>161</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>19</v>
+        <v>676</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>28</v>
@@ -20596,7 +20659,7 @@
         <v>241</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>241</v>
+        <v>664</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>241</v>
@@ -20660,7 +20723,7 @@
         <v>217</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>61</v>
+        <v>677</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>92</v>
@@ -20746,7 +20809,7 @@
         <v>43</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>34</v>
+        <v>678</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>241</v>
@@ -20798,7 +20861,7 @@
         <v>55</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>58</v>
+        <v>679</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>58</v>
@@ -20862,7 +20925,7 @@
         <v>58</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>37</v>
+        <v>680</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>61</v>
@@ -21056,7 +21119,7 @@
         <v>241</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>49</v>
+        <v>681</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>217</v>
@@ -21138,7 +21201,7 @@
         <v>241</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>55</v>
+        <v>682</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>241</v>
@@ -21410,7 +21473,7 @@
         <v>258</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>241</v>
+        <v>664</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>161</v>
